--- a/data/trans_orig/P19C11_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Edad-trans_orig.xlsx
@@ -551,7 +551,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según si el motivo por su última visita al dentista fue por implantes / solo 2023 en 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población según si el motivo por su última visita al dentista fue por implantes en 2023 (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P19C11_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Edad-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7788</v>
+        <v>7059</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003162003062071501</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02055561734268622</v>
+        <v>0.01863219660589015</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13064</v>
+        <v>13680</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01159256446929132</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03806189244913891</v>
+        <v>0.03985587113416277</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -783,19 +783,19 @@
         <v>5177</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1219</v>
+        <v>1197</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16578</v>
+        <v>14253</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007169384442748732</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001688519913547766</v>
+        <v>0.001657746690306145</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02295799175379194</v>
+        <v>0.01973799824106022</v>
       </c>
     </row>
     <row r="5">
@@ -812,7 +812,7 @@
         <v>377656</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>371066</v>
+        <v>371795</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>378854</v>
@@ -821,7 +821,7 @@
         <v>0.9968379969379285</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9794443826573144</v>
+        <v>0.9813678033941085</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>339261</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>330176</v>
+        <v>329560</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>343240</v>
@@ -842,7 +842,7 @@
         <v>0.9884074355307088</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9619381075508612</v>
+        <v>0.9601441288658376</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -854,19 +854,19 @@
         <v>716917</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>705516</v>
+        <v>707841</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>720875</v>
+        <v>720897</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9928306155572512</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.977042008246208</v>
+        <v>0.9802620017589392</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9983114800864524</v>
+        <v>0.9983422533096936</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>14834</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7335</v>
+        <v>7439</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28577</v>
+        <v>29831</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03326899067893022</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01645063653937896</v>
+        <v>0.01668289832355702</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06408960954518647</v>
+        <v>0.06690178291003787</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -979,19 +979,19 @@
         <v>8065</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3549</v>
+        <v>3297</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17108</v>
+        <v>16109</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0167106756151255</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007353709996274925</v>
+        <v>0.006831494191075167</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03544928222397202</v>
+        <v>0.03337858047572141</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -1000,19 +1000,19 @@
         <v>22899</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13622</v>
+        <v>13036</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39313</v>
+        <v>37257</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02466244476887225</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01467115304798379</v>
+        <v>0.01404026925127949</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04234054434160584</v>
+        <v>0.04012628381737848</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>431059</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>417316</v>
+        <v>416062</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>438558</v>
+        <v>438454</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9667310093210699</v>
+        <v>0.9667310093210698</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9359103904548125</v>
+        <v>0.9330982170899623</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9835493634606209</v>
+        <v>0.983317101676443</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>435</v>
@@ -1050,19 +1050,19 @@
         <v>474544</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>465501</v>
+        <v>466500</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>479060</v>
+        <v>479312</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9832893243848746</v>
+        <v>0.9832893243848745</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.964550717776028</v>
+        <v>0.9666214195242784</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9926462900037251</v>
+        <v>0.9931685058089246</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>706</v>
@@ -1071,19 +1071,19 @@
         <v>905603</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>889189</v>
+        <v>891245</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>914880</v>
+        <v>915466</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9753375552311278</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9576594556583939</v>
+        <v>0.9598737161826216</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9853288469520161</v>
+        <v>0.9859597307487207</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>19783</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11759</v>
+        <v>11734</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30910</v>
+        <v>31118</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03290965382130532</v>
+        <v>0.03290965382130531</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01956189145023073</v>
+        <v>0.01952076774298375</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05141965803774844</v>
+        <v>0.05176694953714647</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1196,19 +1196,19 @@
         <v>13209</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8059</v>
+        <v>8403</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19558</v>
+        <v>20866</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02175093758995129</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01327086598060942</v>
+        <v>0.01383771651313842</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03220530390959606</v>
+        <v>0.03435973403446995</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -1217,19 +1217,19 @@
         <v>32992</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23618</v>
+        <v>22924</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45035</v>
+        <v>46037</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02730186383292084</v>
+        <v>0.02730186383292083</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01954487711744748</v>
+        <v>0.01897060658504583</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03726824037175427</v>
+        <v>0.03809728404755562</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>581341</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>570214</v>
+        <v>570006</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>589365</v>
+        <v>589390</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9670903461786947</v>
+        <v>0.9670903461786946</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.948580341962252</v>
+        <v>0.9482330504628536</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9804381085497694</v>
+        <v>0.9804792322570163</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>806</v>
@@ -1267,19 +1267,19 @@
         <v>594073</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>587724</v>
+        <v>586416</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>599223</v>
+        <v>598879</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9782490624100486</v>
+        <v>0.9782490624100487</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9677946960904036</v>
+        <v>0.9656402659655303</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9867291340193903</v>
+        <v>0.986162283486862</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1316</v>
@@ -1288,19 +1288,19 @@
         <v>1175413</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1163370</v>
+        <v>1162368</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1184787</v>
+        <v>1185481</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9726981361670792</v>
+        <v>0.972698136167079</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.962731759628246</v>
+        <v>0.9619027159524445</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9804551228825525</v>
+        <v>0.9810293934149543</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>34115</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23267</v>
+        <v>23927</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47860</v>
+        <v>46783</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05029534498518588</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03430147314656161</v>
+        <v>0.03527493061662913</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07055939027364722</v>
+        <v>0.06897034317932568</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -1413,19 +1413,19 @@
         <v>41919</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33522</v>
+        <v>33264</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53216</v>
+        <v>52556</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0580792100273126</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04644469871122322</v>
+        <v>0.04608799117069137</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07373103063362227</v>
+        <v>0.0728167363945809</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>104</v>
@@ -1434,19 +1434,19 @@
         <v>76034</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62627</v>
+        <v>60949</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91487</v>
+        <v>91177</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05430808230253541</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04473175464880434</v>
+        <v>0.04353341015080782</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06534544258524551</v>
+        <v>0.06512391310715882</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>644184</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>630439</v>
+        <v>631516</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>655032</v>
+        <v>654372</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.949704655014814</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9294406097263527</v>
+        <v>0.9310296568206745</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9656985268534384</v>
+        <v>0.9647250693833708</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1046</v>
@@ -1484,19 +1484,19 @@
         <v>679838</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>668541</v>
+        <v>669201</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>688235</v>
+        <v>688493</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9419207899726875</v>
+        <v>0.9419207899726872</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9262689693663776</v>
+        <v>0.9271832636054195</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9535553012887771</v>
+        <v>0.953912008829309</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1654</v>
@@ -1505,19 +1505,19 @@
         <v>1324022</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1308569</v>
+        <v>1308879</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1337429</v>
+        <v>1339107</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9456919176974644</v>
+        <v>0.9456919176974645</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9346545574147546</v>
+        <v>0.9348760868928412</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9552682453511957</v>
+        <v>0.9564665898491922</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>32392</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23138</v>
+        <v>22840</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45290</v>
+        <v>44266</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05459054941539166</v>
+        <v>0.05459054941539165</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03899436353748596</v>
+        <v>0.03849315106786164</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07632849358308545</v>
+        <v>0.07460266110891653</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>71</v>
@@ -1630,19 +1630,19 @@
         <v>40163</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31333</v>
+        <v>31956</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51056</v>
+        <v>50535</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06740508482077849</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05258560353742654</v>
+        <v>0.05363107009599492</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08568593326139751</v>
+        <v>0.08481162159765084</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>107</v>
@@ -1651,19 +1651,19 @@
         <v>72555</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>58208</v>
+        <v>60543</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>86850</v>
+        <v>88965</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06101125322430336</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0489471994303454</v>
+        <v>0.05091041300806694</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07303188869405682</v>
+        <v>0.07481076390765809</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>560963</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>548065</v>
+        <v>549089</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>570217</v>
+        <v>570515</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9454094505846083</v>
+        <v>0.9454094505846082</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9236715064169149</v>
+        <v>0.9253973388910833</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9610056364625139</v>
+        <v>0.9615068489321382</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>910</v>
@@ -1701,19 +1701,19 @@
         <v>555686</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>544793</v>
+        <v>545314</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>564516</v>
+        <v>563893</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9325949151792214</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9143140667386026</v>
+        <v>0.9151883784023493</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9474143964625731</v>
+        <v>0.9463689299040053</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1519</v>
@@ -1722,19 +1722,19 @@
         <v>1116649</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1102354</v>
+        <v>1100239</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1130996</v>
+        <v>1128661</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9389887467756964</v>
+        <v>0.9389887467756967</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9269681113059433</v>
+        <v>0.9251892360923423</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9510528005696547</v>
+        <v>0.9490895869919331</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>33635</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24901</v>
+        <v>25625</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43740</v>
+        <v>42851</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08456528048715281</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06260473297450299</v>
+        <v>0.06442478472168783</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1099690752701486</v>
+        <v>0.1077357653491316</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>45</v>
@@ -1847,19 +1847,19 @@
         <v>24409</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17856</v>
+        <v>17638</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32081</v>
+        <v>31630</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0569066137808731</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04162918830231258</v>
+        <v>0.04112223704102791</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07479331840635411</v>
+        <v>0.07374257930440201</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>93</v>
@@ -1868,19 +1868,19 @@
         <v>58044</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46982</v>
+        <v>46441</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>70409</v>
+        <v>71006</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07021431425217849</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05683343228123181</v>
+        <v>0.05617819940442418</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08517154122803518</v>
+        <v>0.08589369765813377</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>364109</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>354004</v>
+        <v>354893</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>372843</v>
+        <v>372119</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9154347195128472</v>
+        <v>0.9154347195128473</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8900309247298515</v>
+        <v>0.8922642346508687</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9373952670254971</v>
+        <v>0.9355752152783121</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>762</v>
@@ -1918,19 +1918,19 @@
         <v>404516</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>396844</v>
+        <v>397295</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>411069</v>
+        <v>411287</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9430933862191269</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9252066815936461</v>
+        <v>0.926257420695598</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9583708116976876</v>
+        <v>0.9588777629589722</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1270</v>
@@ -1939,19 +1939,19 @@
         <v>768625</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>756260</v>
+        <v>755663</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>779687</v>
+        <v>780228</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9297856857478215</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9148284587719648</v>
+        <v>0.9141063023418663</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9431665677187685</v>
+        <v>0.9438218005955757</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>19305</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13412</v>
+        <v>12613</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27499</v>
+        <v>27930</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06383676358490631</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04435047377984498</v>
+        <v>0.04170901104523654</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0909317283230211</v>
+        <v>0.09235958218502927</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>38</v>
@@ -2064,19 +2064,19 @@
         <v>20399</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13911</v>
+        <v>14082</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27934</v>
+        <v>27507</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04575981870053403</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03120594292407295</v>
+        <v>0.0315891582624075</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0626613697164172</v>
+        <v>0.06170347353854857</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>65</v>
@@ -2085,19 +2085,19 @@
         <v>39704</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31130</v>
+        <v>31331</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>49737</v>
+        <v>50462</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05306624334177755</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04160669548371868</v>
+        <v>0.04187535572729831</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06647584582286538</v>
+        <v>0.06744547544011006</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>283104</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>274910</v>
+        <v>274479</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>288997</v>
+        <v>289796</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9361632364150937</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9090682716769792</v>
+        <v>0.9076404178149708</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9556495262201555</v>
+        <v>0.9582909889547637</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>812</v>
@@ -2135,19 +2135,19 @@
         <v>425387</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>417852</v>
+        <v>418279</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>431875</v>
+        <v>431704</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9542401812994661</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9373386302835831</v>
+        <v>0.9382965264614513</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9687940570759271</v>
+        <v>0.9684108417375923</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1231</v>
@@ -2156,19 +2156,19 @@
         <v>708492</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>698459</v>
+        <v>697734</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>717066</v>
+        <v>716865</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9469337566582224</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9335241541771345</v>
+        <v>0.9325545245598899</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9583933045162812</v>
+        <v>0.9581246442727017</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>155262</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>130902</v>
+        <v>131897</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>179015</v>
+        <v>180762</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.04569654256769697</v>
+        <v>0.04569654256769698</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03852676153307166</v>
+        <v>0.03881968156981967</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05268756337736302</v>
+        <v>0.05320177167037374</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>253</v>
@@ -2281,19 +2281,19 @@
         <v>152143</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>132732</v>
+        <v>135275</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>172768</v>
+        <v>171994</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.0419652390601206</v>
+        <v>0.04196523906012059</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03661132277906447</v>
+        <v>0.03731273843166451</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04765435471996157</v>
+        <v>0.04744086703201664</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>425</v>
@@ -2302,19 +2302,19 @@
         <v>307405</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>276289</v>
+        <v>278142</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>336091</v>
+        <v>339978</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04377038503102697</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03933987689343808</v>
+        <v>0.03960369249466342</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04785496954853194</v>
+        <v>0.04840834539789479</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>3242416</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3218663</v>
+        <v>3216916</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3266776</v>
+        <v>3265781</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9543034574323029</v>
+        <v>0.954303457432303</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.947312436622637</v>
+        <v>0.9467982283296262</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9614732384669282</v>
+        <v>0.9611803184301801</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4964</v>
@@ -2352,19 +2352,19 @@
         <v>3473305</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3452680</v>
+        <v>3453454</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3492716</v>
+        <v>3490173</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9580347609398794</v>
+        <v>0.9580347609398793</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9523456452800386</v>
+        <v>0.9525591329679836</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9633886772209357</v>
+        <v>0.9626872615683356</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8045</v>
@@ -2373,19 +2373,19 @@
         <v>6715720</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6687034</v>
+        <v>6683147</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6746836</v>
+        <v>6744983</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9562296149689731</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9521450304514681</v>
+        <v>0.9515916546021054</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.960660123106562</v>
+        <v>0.9603963075053366</v>
       </c>
     </row>
     <row r="27">
